--- a/dataanalysis/data/predictions/1400/09191357_1359.xlsx
+++ b/dataanalysis/data/predictions/1400/09191357_1359.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="144">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-19</t>
   </si>
   <si>
@@ -443,12 +446,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -806,13 +803,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH57"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,19 +912,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300007</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-9.08</v>
@@ -945,7 +945,7 @@
         <v>330989.44</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K2">
         <v>9</v>
@@ -987,10 +987,25 @@
         <v>-1.89</v>
       </c>
       <c r="X2" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y2">
+        <v>0.62</v>
+      </c>
+      <c r="Z2">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>1.64</v>
       </c>
       <c r="AC2" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -998,22 +1013,25 @@
       <c r="AG2">
         <v>2.534011840820312</v>
       </c>
-      <c r="AH2" t="s">
-        <v>143</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300043</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-2.65</v>
@@ -1031,7 +1049,7 @@
         <v>67133.64</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1073,10 +1091,25 @@
         <v>-0.26</v>
       </c>
       <c r="X3" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y3">
+        <v>-1.14</v>
+      </c>
+      <c r="Z3">
+        <v>7.08</v>
+      </c>
+      <c r="AA3">
+        <v>1.43</v>
       </c>
       <c r="AC3" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1084,22 +1117,25 @@
       <c r="AG3">
         <v>-0.1307752132415771</v>
       </c>
-      <c r="AH3" t="s">
-        <v>143</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300049</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-6.24</v>
@@ -1117,7 +1153,7 @@
         <v>168550.91</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4">
         <v>17</v>
@@ -1159,10 +1195,25 @@
         <v>-1.49</v>
       </c>
       <c r="X4" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Y4">
+        <v>-0.62</v>
+      </c>
+      <c r="Z4">
+        <v>82.3</v>
+      </c>
+      <c r="AA4">
+        <v>2.3</v>
       </c>
       <c r="AC4" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1170,22 +1221,25 @@
       <c r="AG4">
         <v>31.71627807617188</v>
       </c>
-      <c r="AH4" t="s">
-        <v>143</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300115</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-8.75</v>
@@ -1203,7 +1257,7 @@
         <v>561683.1</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1245,10 +1299,25 @@
         <v>-0.98</v>
       </c>
       <c r="X5" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y5">
+        <v>20.01</v>
+      </c>
+      <c r="Z5">
+        <v>37.72</v>
+      </c>
+      <c r="AA5">
+        <v>19.82</v>
       </c>
       <c r="AC5" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1256,22 +1325,25 @@
       <c r="AG5">
         <v>2.09291934967041</v>
       </c>
-      <c r="AH5" t="s">
-        <v>143</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300324</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>3.17</v>
@@ -1289,7 +1361,7 @@
         <v>193055.85</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1331,10 +1403,25 @@
         <v>1.06</v>
       </c>
       <c r="X6" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y6">
+        <v>-2</v>
+      </c>
+      <c r="Z6">
+        <v>7.58</v>
+      </c>
+      <c r="AA6">
+        <v>1.2</v>
       </c>
       <c r="AC6" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1342,22 +1429,25 @@
       <c r="AG6">
         <v>3.434570789337158</v>
       </c>
-      <c r="AH6" t="s">
-        <v>143</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300331</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>2.82</v>
@@ -1375,7 +1465,7 @@
         <v>206738.48</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K7">
         <v>11</v>
@@ -1417,10 +1507,25 @@
         <v>-0.31</v>
       </c>
       <c r="X7" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y7">
+        <v>-3.89</v>
+      </c>
+      <c r="Z7">
+        <v>39.83</v>
+      </c>
+      <c r="AA7">
+        <v>0.15</v>
       </c>
       <c r="AC7" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1428,22 +1533,25 @@
       <c r="AG7">
         <v>2.150479555130005</v>
       </c>
-      <c r="AH7" t="s">
-        <v>143</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300450</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-0.76</v>
@@ -1461,7 +1569,7 @@
         <v>1018017.79</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K8">
         <v>16</v>
@@ -1503,10 +1611,25 @@
         <v>0.04</v>
       </c>
       <c r="X8" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y8">
+        <v>5.92</v>
+      </c>
+      <c r="Z8">
+        <v>58.9</v>
+      </c>
+      <c r="AA8">
+        <v>4.62</v>
       </c>
       <c r="AC8" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1514,22 +1637,25 @@
       <c r="AG8">
         <v>4.596072196960449</v>
       </c>
-      <c r="AH8" t="s">
-        <v>144</v>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300467</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-0.74</v>
@@ -1547,7 +1673,7 @@
         <v>35907.53</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1588,8 +1714,23 @@
       <c r="W9">
         <v>0.18</v>
       </c>
+      <c r="Y9">
+        <v>-2.48</v>
+      </c>
+      <c r="Z9">
+        <v>26.56</v>
+      </c>
+      <c r="AA9">
+        <v>-1.26</v>
+      </c>
       <c r="AC9" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1597,22 +1738,25 @@
       <c r="AG9">
         <v>-1.311203360557556</v>
       </c>
-      <c r="AH9" t="s">
-        <v>143</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300469</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-0.66</v>
@@ -1630,7 +1774,7 @@
         <v>107854.98</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10">
         <v>22</v>
@@ -1672,10 +1816,25 @@
         <v>0.13</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y10">
+        <v>0.55</v>
+      </c>
+      <c r="Z10">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="AA10">
+        <v>2.03</v>
       </c>
       <c r="AC10" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1683,22 +1842,25 @@
       <c r="AG10">
         <v>-44.87026596069336</v>
       </c>
-      <c r="AH10" t="s">
-        <v>143</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300475</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>3.75</v>
@@ -1716,7 +1878,7 @@
         <v>327132.34</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11">
         <v>11</v>
@@ -1758,10 +1920,25 @@
         <v>0.02</v>
       </c>
       <c r="X11" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y11">
+        <v>13.07</v>
+      </c>
+      <c r="Z11">
+        <v>88.64</v>
+      </c>
+      <c r="AA11">
+        <v>13.15</v>
       </c>
       <c r="AC11" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1769,22 +1946,25 @@
       <c r="AG11">
         <v>2.047982215881348</v>
       </c>
-      <c r="AH11" t="s">
-        <v>143</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300507</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-1.82</v>
@@ -1802,7 +1982,7 @@
         <v>132170.7</v>
       </c>
       <c r="J12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1843,8 +2023,23 @@
       <c r="W12">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="Y12">
+        <v>-1.27</v>
+      </c>
+      <c r="Z12">
+        <v>10.42</v>
+      </c>
+      <c r="AA12">
+        <v>1.66</v>
+      </c>
       <c r="AC12" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1852,22 +2047,25 @@
       <c r="AG12">
         <v>-4.071393013000488</v>
       </c>
-      <c r="AH12" t="s">
-        <v>143</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300521</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-4.33</v>
@@ -1885,7 +2083,7 @@
         <v>47838.53</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1927,10 +2125,25 @@
         <v>-0.22</v>
       </c>
       <c r="X13" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y13">
+        <v>5.43</v>
+      </c>
+      <c r="Z13">
+        <v>34.48</v>
+      </c>
+      <c r="AA13">
+        <v>11.59</v>
       </c>
       <c r="AC13" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1938,22 +2151,25 @@
       <c r="AG13">
         <v>3.563738584518433</v>
       </c>
-      <c r="AH13" t="s">
-        <v>143</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300539</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-4.32</v>
@@ -1971,7 +2187,7 @@
         <v>85328.67999999999</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K14">
         <v>11</v>
@@ -2013,10 +2229,25 @@
         <v>0.13</v>
       </c>
       <c r="X14" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y14">
+        <v>20</v>
+      </c>
+      <c r="Z14">
+        <v>48.48</v>
+      </c>
+      <c r="AA14">
+        <v>18.45</v>
       </c>
       <c r="AC14" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2024,22 +2255,25 @@
       <c r="AG14">
         <v>2.744561672210693</v>
       </c>
-      <c r="AH14" t="s">
-        <v>143</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300602</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-5.02</v>
@@ -2057,7 +2291,7 @@
         <v>170944.29</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -2099,10 +2333,25 @@
         <v>-1.25</v>
       </c>
       <c r="X15" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y15">
+        <v>3.86</v>
+      </c>
+      <c r="Z15">
+        <v>35.61</v>
+      </c>
+      <c r="AA15">
+        <v>5.04</v>
       </c>
       <c r="AC15" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2110,22 +2359,25 @@
       <c r="AG15">
         <v>1.061677694320679</v>
       </c>
-      <c r="AH15" t="s">
-        <v>143</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300604</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-1.14</v>
@@ -2143,7 +2395,7 @@
         <v>184734.9</v>
       </c>
       <c r="J16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16">
         <v>18</v>
@@ -2185,10 +2437,25 @@
         <v>-0.31</v>
       </c>
       <c r="X16" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Y16">
+        <v>4.53</v>
+      </c>
+      <c r="Z16">
+        <v>67.8</v>
+      </c>
+      <c r="AA16">
+        <v>5.69</v>
       </c>
       <c r="AC16" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2196,22 +2463,25 @@
       <c r="AG16">
         <v>-0.1783253848552704</v>
       </c>
-      <c r="AH16" t="s">
-        <v>143</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300620</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>1.54</v>
@@ -2229,7 +2499,7 @@
         <v>417183.67</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17">
         <v>8</v>
@@ -2271,10 +2541,25 @@
         <v>-0.15</v>
       </c>
       <c r="X17" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y17">
+        <v>10.27</v>
+      </c>
+      <c r="Z17">
+        <v>144.23</v>
+      </c>
+      <c r="AA17">
+        <v>15.33</v>
       </c>
       <c r="AC17" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2282,22 +2567,25 @@
       <c r="AG17">
         <v>29.49868011474609</v>
       </c>
-      <c r="AH17" t="s">
-        <v>143</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300680</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-4.74</v>
@@ -2315,7 +2603,7 @@
         <v>85845.39999999999</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K18">
         <v>7</v>
@@ -2357,10 +2645,25 @@
         <v>-0.39</v>
       </c>
       <c r="X18" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y18">
+        <v>0.08</v>
+      </c>
+      <c r="Z18">
+        <v>61.47</v>
+      </c>
+      <c r="AA18">
+        <v>2.91</v>
       </c>
       <c r="AC18" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2368,22 +2671,25 @@
       <c r="AG18">
         <v>5.488533020019531</v>
       </c>
-      <c r="AH18" t="s">
-        <v>143</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300684</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-2.98</v>
@@ -2401,7 +2707,7 @@
         <v>119671.26</v>
       </c>
       <c r="J19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2443,10 +2749,25 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="X19" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y19">
+        <v>2.78</v>
+      </c>
+      <c r="Z19">
+        <v>45</v>
+      </c>
+      <c r="AA19">
+        <v>3.07</v>
       </c>
       <c r="AC19" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2454,22 +2775,25 @@
       <c r="AG19">
         <v>7.723031044006348</v>
       </c>
-      <c r="AH19" t="s">
-        <v>143</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300815</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>5.93</v>
@@ -2487,7 +2811,7 @@
         <v>106864.7</v>
       </c>
       <c r="J20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2529,10 +2853,25 @@
         <v>0.9</v>
       </c>
       <c r="X20" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y20">
+        <v>-1.11</v>
+      </c>
+      <c r="Z20">
+        <v>30.56</v>
+      </c>
+      <c r="AA20">
+        <v>-1.07</v>
       </c>
       <c r="AC20" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2540,22 +2879,25 @@
       <c r="AG20">
         <v>2.256439924240112</v>
       </c>
-      <c r="AH20" t="s">
-        <v>143</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300857</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0.36</v>
@@ -2573,7 +2915,7 @@
         <v>243964.52</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21">
         <v>21</v>
@@ -2615,10 +2957,25 @@
         <v>0.05</v>
       </c>
       <c r="X21" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y21">
+        <v>7.1</v>
+      </c>
+      <c r="Z21">
+        <v>178.59</v>
+      </c>
+      <c r="AA21">
+        <v>9.17</v>
       </c>
       <c r="AC21" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2626,22 +2983,25 @@
       <c r="AG21">
         <v>3.816159009933472</v>
       </c>
-      <c r="AH21" t="s">
-        <v>143</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300859</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>13.93</v>
@@ -2659,7 +3019,7 @@
         <v>131745.84</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -2701,10 +3061,25 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="X22" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y22">
+        <v>-1.54</v>
+      </c>
+      <c r="Z22">
+        <v>56.52</v>
+      </c>
+      <c r="AA22">
+        <v>-1.98</v>
       </c>
       <c r="AC22" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2712,22 +3087,25 @@
       <c r="AG22">
         <v>1.5146723985672</v>
       </c>
-      <c r="AH22" t="s">
-        <v>143</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300959</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-2.04</v>
@@ -2745,7 +3123,7 @@
         <v>106239.37</v>
       </c>
       <c r="J23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -2787,10 +3165,25 @@
         <v>0.42</v>
       </c>
       <c r="X23" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y23">
+        <v>11</v>
+      </c>
+      <c r="Z23">
+        <v>84.45</v>
+      </c>
+      <c r="AA23">
+        <v>17.29</v>
       </c>
       <c r="AC23" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2798,22 +3191,25 @@
       <c r="AG23">
         <v>1.798931241035461</v>
       </c>
-      <c r="AH23" t="s">
-        <v>143</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300969</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-3.08</v>
@@ -2831,7 +3227,7 @@
         <v>49698.47</v>
       </c>
       <c r="J24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2873,10 +3269,25 @@
         <v>0.55</v>
       </c>
       <c r="X24" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y24">
+        <v>4.87</v>
+      </c>
+      <c r="Z24">
+        <v>122.98</v>
+      </c>
+      <c r="AA24">
+        <v>7.08</v>
       </c>
       <c r="AC24" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -2884,22 +3295,25 @@
       <c r="AG24">
         <v>2.570515155792236</v>
       </c>
-      <c r="AH24" t="s">
-        <v>144</v>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300984</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-0.04</v>
@@ -2917,7 +3331,7 @@
         <v>40787.36</v>
       </c>
       <c r="J25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2959,10 +3373,25 @@
         <v>-0.35</v>
       </c>
       <c r="X25" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y25">
+        <v>3.96</v>
+      </c>
+      <c r="Z25">
+        <v>79.2</v>
+      </c>
+      <c r="AA25">
+        <v>6.87</v>
       </c>
       <c r="AC25" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2970,22 +3399,25 @@
       <c r="AG25">
         <v>-1.054493069648743</v>
       </c>
-      <c r="AH25" t="s">
-        <v>143</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>301002</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-4.62</v>
@@ -3003,7 +3435,7 @@
         <v>27818.53</v>
       </c>
       <c r="J26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K26">
         <v>14</v>
@@ -3044,8 +3476,23 @@
       <c r="W26">
         <v>-0.45</v>
       </c>
+      <c r="Y26">
+        <v>2.51</v>
+      </c>
+      <c r="Z26">
+        <v>42.3</v>
+      </c>
+      <c r="AA26">
+        <v>2.89</v>
+      </c>
       <c r="AC26" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3053,22 +3500,25 @@
       <c r="AG26">
         <v>3.924808740615845</v>
       </c>
-      <c r="AH26" t="s">
-        <v>143</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301008</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-4.65</v>
@@ -3086,7 +3536,7 @@
         <v>58650.74</v>
       </c>
       <c r="J27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3128,10 +3578,25 @@
         <v>0.32</v>
       </c>
       <c r="X27" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y27">
+        <v>12.79</v>
+      </c>
+      <c r="Z27">
+        <v>49.79</v>
+      </c>
+      <c r="AA27">
+        <v>18.97</v>
       </c>
       <c r="AC27" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3139,22 +3604,25 @@
       <c r="AG27">
         <v>1.211456298828125</v>
       </c>
-      <c r="AH27" t="s">
-        <v>143</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301012</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-2.29</v>
@@ -3172,7 +3640,7 @@
         <v>60858.73</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3214,10 +3682,25 @@
         <v>-2.63</v>
       </c>
       <c r="X28" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="Y28">
+        <v>-4.89</v>
+      </c>
+      <c r="Z28">
+        <v>26.2</v>
+      </c>
+      <c r="AA28">
+        <v>-1.13</v>
       </c>
       <c r="AC28" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>1</v>
@@ -3225,22 +3708,25 @@
       <c r="AG28">
         <v>2.64726710319519</v>
       </c>
-      <c r="AH28" t="s">
-        <v>143</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301013</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-7.87</v>
@@ -3258,7 +3744,7 @@
         <v>195445.11</v>
       </c>
       <c r="J29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3300,10 +3786,25 @@
         <v>-2.08</v>
       </c>
       <c r="X29" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y29">
+        <v>14.62</v>
+      </c>
+      <c r="Z29">
+        <v>31.2</v>
+      </c>
+      <c r="AA29">
+        <v>15.86</v>
       </c>
       <c r="AC29" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3311,22 +3812,25 @@
       <c r="AG29">
         <v>3.798989295959473</v>
       </c>
-      <c r="AH29" t="s">
-        <v>143</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301123</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>1.36</v>
@@ -3344,7 +3848,7 @@
         <v>51285.27</v>
       </c>
       <c r="J30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K30">
         <v>7</v>
@@ -3386,10 +3890,25 @@
         <v>0.11</v>
       </c>
       <c r="X30" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y30">
+        <v>-2.25</v>
+      </c>
+      <c r="Z30">
+        <v>51.3</v>
+      </c>
+      <c r="AA30">
+        <v>1.04</v>
       </c>
       <c r="AC30" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3397,22 +3916,25 @@
       <c r="AG30">
         <v>4.728124618530273</v>
       </c>
-      <c r="AH30" t="s">
-        <v>143</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301150</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>3.89</v>
@@ -3430,7 +3952,7 @@
         <v>78580.35000000001</v>
       </c>
       <c r="J31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K31">
         <v>14</v>
@@ -3472,10 +3994,25 @@
         <v>0.89</v>
       </c>
       <c r="X31" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Y31">
+        <v>4.05</v>
+      </c>
+      <c r="Z31">
+        <v>45.38</v>
+      </c>
+      <c r="AA31">
+        <v>9.75</v>
       </c>
       <c r="AC31" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3483,22 +4020,25 @@
       <c r="AG31">
         <v>3.123277902603149</v>
       </c>
-      <c r="AH31" t="s">
-        <v>143</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301183</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>6.55</v>
@@ -3516,7 +4056,7 @@
         <v>112315.61</v>
       </c>
       <c r="J32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K32">
         <v>7</v>
@@ -3558,10 +4098,25 @@
         <v>0.63</v>
       </c>
       <c r="X32" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Y32">
+        <v>-0.31</v>
+      </c>
+      <c r="Z32">
+        <v>110.81</v>
+      </c>
+      <c r="AA32">
+        <v>-0.06</v>
       </c>
       <c r="AC32" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3569,22 +4124,25 @@
       <c r="AG32">
         <v>0.358313113451004</v>
       </c>
-      <c r="AH32" t="s">
-        <v>143</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301307</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-2.8</v>
@@ -3602,7 +4160,7 @@
         <v>66547.16</v>
       </c>
       <c r="J33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K33">
         <v>8</v>
@@ -3644,10 +4202,25 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="X33" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y33">
+        <v>-0.1</v>
+      </c>
+      <c r="Z33">
+        <v>41.8</v>
+      </c>
+      <c r="AA33">
+        <v>4.89</v>
       </c>
       <c r="AC33" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3655,22 +4228,25 @@
       <c r="AG33">
         <v>42.15909576416016</v>
       </c>
-      <c r="AH33" t="s">
-        <v>143</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301308</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>12.78</v>
@@ -3688,7 +4264,7 @@
         <v>292185.37</v>
       </c>
       <c r="J34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3730,10 +4306,25 @@
         <v>0.14</v>
       </c>
       <c r="X34" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y34">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="Z34">
+        <v>145.15</v>
+      </c>
+      <c r="AA34">
+        <v>12.9</v>
       </c>
       <c r="AC34" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3741,22 +4332,25 @@
       <c r="AG34">
         <v>12.24911785125732</v>
       </c>
-      <c r="AH34" t="s">
-        <v>143</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301389</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>3.12</v>
@@ -3774,7 +4368,7 @@
         <v>153083.85</v>
       </c>
       <c r="J35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -3816,10 +4410,25 @@
         <v>0.91</v>
       </c>
       <c r="X35" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y35">
+        <v>0.12</v>
+      </c>
+      <c r="Z35">
+        <v>76.39</v>
+      </c>
+      <c r="AA35">
+        <v>1.69</v>
       </c>
       <c r="AC35" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>1</v>
@@ -3827,22 +4436,25 @@
       <c r="AG35">
         <v>-2.846961498260498</v>
       </c>
-      <c r="AH35" t="s">
-        <v>144</v>
+      <c r="AH35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301413</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-8.369999999999999</v>
@@ -3860,7 +4472,7 @@
         <v>91384.2</v>
       </c>
       <c r="J36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36">
         <v>21</v>
@@ -3902,10 +4514,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X36" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y36">
+        <v>2.75</v>
+      </c>
+      <c r="Z36">
+        <v>180.32</v>
+      </c>
+      <c r="AA36">
+        <v>4.67</v>
       </c>
       <c r="AC36" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3913,22 +4540,25 @@
       <c r="AG36">
         <v>9.4068603515625</v>
       </c>
-      <c r="AH36" t="s">
-        <v>143</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301488</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-12.44</v>
@@ -3946,7 +4576,7 @@
         <v>128896.52</v>
       </c>
       <c r="J37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K37">
         <v>18</v>
@@ -3988,10 +4618,25 @@
         <v>-3.53</v>
       </c>
       <c r="X37" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y37">
+        <v>0.12</v>
+      </c>
+      <c r="Z37">
+        <v>189.19</v>
+      </c>
+      <c r="AA37">
+        <v>3.38</v>
       </c>
       <c r="AC37" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3999,22 +4644,25 @@
       <c r="AG37">
         <v>7.330318450927734</v>
       </c>
-      <c r="AH37" t="s">
-        <v>143</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301489</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>0.5600000000000001</v>
@@ -4032,7 +4680,7 @@
         <v>49496.51</v>
       </c>
       <c r="J38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K38">
         <v>9</v>
@@ -4074,10 +4722,25 @@
         <v>-0.06</v>
       </c>
       <c r="X38" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y38">
+        <v>11.75</v>
+      </c>
+      <c r="Z38">
+        <v>268</v>
+      </c>
+      <c r="AA38">
+        <v>15.33</v>
       </c>
       <c r="AC38" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4085,22 +4748,25 @@
       <c r="AG38">
         <v>3.623733758926392</v>
       </c>
-      <c r="AH38" t="s">
-        <v>143</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688028</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-6.93</v>
@@ -4118,7 +4784,7 @@
         <v>43650.58</v>
       </c>
       <c r="J39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K39">
         <v>10</v>
@@ -4160,10 +4826,25 @@
         <v>-0.26</v>
       </c>
       <c r="X39" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y39">
+        <v>13.19</v>
+      </c>
+      <c r="Z39">
+        <v>51.88</v>
+      </c>
+      <c r="AA39">
+        <v>17.11</v>
       </c>
       <c r="AC39" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4171,22 +4852,25 @@
       <c r="AG39">
         <v>0.5346014499664307</v>
       </c>
-      <c r="AH39" t="s">
-        <v>143</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688041</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-2.72</v>
@@ -4204,7 +4888,7 @@
         <v>979822.49</v>
       </c>
       <c r="J40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4246,10 +4930,25 @@
         <v>-0.16</v>
       </c>
       <c r="X40" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y40">
+        <v>10.7</v>
+      </c>
+      <c r="Z40">
+        <v>274.78</v>
+      </c>
+      <c r="AA40">
+        <v>15.86</v>
       </c>
       <c r="AC40" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4257,22 +4956,25 @@
       <c r="AG40">
         <v>-14.27057838439941</v>
       </c>
-      <c r="AH40" t="s">
-        <v>143</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688135</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-4.54</v>
@@ -4290,7 +4992,7 @@
         <v>89065.50999999999</v>
       </c>
       <c r="J41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K41">
         <v>14</v>
@@ -4332,10 +5034,25 @@
         <v>-1.22</v>
       </c>
       <c r="X41" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y41">
+        <v>5.46</v>
+      </c>
+      <c r="Z41">
+        <v>36.58</v>
+      </c>
+      <c r="AA41">
+        <v>8.1</v>
       </c>
       <c r="AC41" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4343,22 +5060,25 @@
       <c r="AG41">
         <v>1.316761493682861</v>
       </c>
-      <c r="AH41" t="s">
-        <v>143</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688167</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>0.08</v>
@@ -4376,7 +5096,7 @@
         <v>136254.59</v>
       </c>
       <c r="J42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K42">
         <v>11</v>
@@ -4418,10 +5138,25 @@
         <v>0.39</v>
       </c>
       <c r="X42" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y42">
+        <v>-2.53</v>
+      </c>
+      <c r="Z42">
+        <v>181.99</v>
+      </c>
+      <c r="AA42">
+        <v>2.26</v>
       </c>
       <c r="AC42" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4429,22 +5164,25 @@
       <c r="AG42">
         <v>2.842658758163452</v>
       </c>
-      <c r="AH42" t="s">
-        <v>143</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688195</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>13.94</v>
@@ -4462,7 +5200,7 @@
         <v>159800.99</v>
       </c>
       <c r="J43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K43">
         <v>25</v>
@@ -4504,10 +5242,25 @@
         <v>0.18</v>
       </c>
       <c r="X43" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y43">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="Z43">
+        <v>143.78</v>
+      </c>
+      <c r="AA43">
+        <v>9.76</v>
       </c>
       <c r="AC43" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4515,22 +5268,25 @@
       <c r="AG43">
         <v>8.482758522033691</v>
       </c>
-      <c r="AH43" t="s">
-        <v>143</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688205</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>10.66</v>
@@ -4548,7 +5304,7 @@
         <v>292002.48</v>
       </c>
       <c r="J44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -4590,10 +5346,25 @@
         <v>-0.53</v>
       </c>
       <c r="X44" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y44">
+        <v>-3.9</v>
+      </c>
+      <c r="Z44">
+        <v>161.8</v>
+      </c>
+      <c r="AA44">
+        <v>4.15</v>
       </c>
       <c r="AC44" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>1</v>
@@ -4601,22 +5372,25 @@
       <c r="AG44">
         <v>6.973461151123047</v>
       </c>
-      <c r="AH44" t="s">
-        <v>143</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688228</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>6</v>
@@ -4634,7 +5408,7 @@
         <v>84318.72</v>
       </c>
       <c r="J45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K45">
         <v>8</v>
@@ -4676,10 +5450,25 @@
         <v>-0.12</v>
       </c>
       <c r="X45" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y45">
+        <v>14.56</v>
+      </c>
+      <c r="Z45">
+        <v>217</v>
+      </c>
+      <c r="AA45">
+        <v>17.61</v>
       </c>
       <c r="AC45" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4687,22 +5476,25 @@
       <c r="AG45">
         <v>0.1395173370838165</v>
       </c>
-      <c r="AH45" t="s">
-        <v>143</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688347</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>1.01</v>
@@ -4720,7 +5512,7 @@
         <v>185961.46</v>
       </c>
       <c r="J46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K46">
         <v>7</v>
@@ -4762,10 +5554,25 @@
         <v>0.09</v>
       </c>
       <c r="X46" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y46">
+        <v>2</v>
+      </c>
+      <c r="Z46">
+        <v>86.67</v>
+      </c>
+      <c r="AA46">
+        <v>4.02</v>
       </c>
       <c r="AC46" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4773,22 +5580,25 @@
       <c r="AG46">
         <v>4.71138858795166</v>
       </c>
-      <c r="AH46" t="s">
-        <v>143</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688400</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>0.52</v>
@@ -4806,7 +5616,7 @@
         <v>184152.52</v>
       </c>
       <c r="J47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K47">
         <v>7</v>
@@ -4847,8 +5657,23 @@
       <c r="W47">
         <v>-0.05</v>
       </c>
+      <c r="Y47">
+        <v>5.7</v>
+      </c>
+      <c r="Z47">
+        <v>57.5</v>
+      </c>
+      <c r="AA47">
+        <v>14.36</v>
+      </c>
       <c r="AC47" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4856,22 +5681,25 @@
       <c r="AG47">
         <v>4.044088840484619</v>
       </c>
-      <c r="AH47" t="s">
-        <v>143</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688411</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-0.89</v>
@@ -4889,7 +5717,7 @@
         <v>34300.97</v>
       </c>
       <c r="J48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K48">
         <v>14</v>
@@ -4931,10 +5759,25 @@
         <v>-0.46</v>
       </c>
       <c r="X48" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y48">
+        <v>7.65</v>
+      </c>
+      <c r="Z48">
+        <v>218.77</v>
+      </c>
+      <c r="AA48">
+        <v>11.15</v>
       </c>
       <c r="AC48" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4942,22 +5785,25 @@
       <c r="AG48">
         <v>1.427158355712891</v>
       </c>
-      <c r="AH48" t="s">
-        <v>143</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688498</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>0.31</v>
@@ -4975,7 +5821,7 @@
         <v>138566.39</v>
       </c>
       <c r="J49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K49">
         <v>8</v>
@@ -5017,10 +5863,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X49" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y49">
+        <v>-1.74</v>
+      </c>
+      <c r="Z49">
+        <v>408.76</v>
+      </c>
+      <c r="AA49">
+        <v>4.54</v>
       </c>
       <c r="AC49" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5028,22 +5889,25 @@
       <c r="AG49">
         <v>3.620140075683594</v>
       </c>
-      <c r="AH49" t="s">
-        <v>143</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688502</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>2.12</v>
@@ -5061,7 +5925,7 @@
         <v>101104.52</v>
       </c>
       <c r="J50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -5103,10 +5967,25 @@
         <v>-0.21</v>
       </c>
       <c r="X50" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y50">
+        <v>-1.52</v>
+      </c>
+      <c r="Z50">
+        <v>456.6</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
       </c>
       <c r="AC50" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5114,22 +5993,25 @@
       <c r="AG50">
         <v>-3.090277433395386</v>
       </c>
-      <c r="AH50" t="s">
-        <v>143</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688521</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-1.5</v>
@@ -5147,7 +6029,7 @@
         <v>261991.35</v>
       </c>
       <c r="J51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K51">
         <v>13</v>
@@ -5189,10 +6071,25 @@
         <v>-0.33</v>
       </c>
       <c r="X51" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y51">
+        <v>17.34</v>
+      </c>
+      <c r="Z51">
+        <v>207.6</v>
+      </c>
+      <c r="AA51">
+        <v>20.44</v>
       </c>
       <c r="AC51" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5200,22 +6097,25 @@
       <c r="AG51">
         <v>23.08865356445312</v>
       </c>
-      <c r="AH51" t="s">
-        <v>143</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688593</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>0.44</v>
@@ -5233,7 +6133,7 @@
         <v>52882.53</v>
       </c>
       <c r="J52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5275,10 +6175,25 @@
         <v>0.01</v>
       </c>
       <c r="X52" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y52">
+        <v>-8.85</v>
+      </c>
+      <c r="Z52">
+        <v>25.17</v>
+      </c>
+      <c r="AA52">
+        <v>-0.83</v>
       </c>
       <c r="AC52" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5286,22 +6201,25 @@
       <c r="AG52">
         <v>11.51071262359619</v>
       </c>
-      <c r="AH52" t="s">
-        <v>143</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688627</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>3.01</v>
@@ -5319,7 +6237,7 @@
         <v>70968.33</v>
       </c>
       <c r="J53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K53">
         <v>6</v>
@@ -5360,8 +6278,23 @@
       <c r="W53">
         <v>0.14</v>
       </c>
+      <c r="Y53">
+        <v>4.07</v>
+      </c>
+      <c r="Z53">
+        <v>157</v>
+      </c>
+      <c r="AA53">
+        <v>5.55</v>
+      </c>
       <c r="AC53" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5369,22 +6302,25 @@
       <c r="AG53">
         <v>3.061314821243286</v>
       </c>
-      <c r="AH53" t="s">
-        <v>143</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688629</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-1.8</v>
@@ -5402,7 +6338,7 @@
         <v>360344.99</v>
       </c>
       <c r="J54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K54">
         <v>7</v>
@@ -5444,10 +6380,25 @@
         <v>-1.73</v>
       </c>
       <c r="X54" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y54">
+        <v>2.62</v>
+      </c>
+      <c r="Z54">
+        <v>111.11</v>
+      </c>
+      <c r="AA54">
+        <v>6.53</v>
       </c>
       <c r="AC54" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5455,22 +6406,25 @@
       <c r="AG54">
         <v>18.89991188049316</v>
       </c>
-      <c r="AH54" t="s">
-        <v>143</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688678</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>1.16</v>
@@ -5488,7 +6442,7 @@
         <v>50059.62</v>
       </c>
       <c r="J55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -5529,8 +6483,23 @@
       <c r="W55">
         <v>0.3</v>
       </c>
+      <c r="Y55">
+        <v>12.27</v>
+      </c>
+      <c r="Z55">
+        <v>36.78</v>
+      </c>
+      <c r="AA55">
+        <v>13.52</v>
+      </c>
       <c r="AC55" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5538,22 +6507,25 @@
       <c r="AG55">
         <v>-0.8663082122802734</v>
       </c>
-      <c r="AH55" t="s">
-        <v>143</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688766</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>3.56</v>
@@ -5571,7 +6543,7 @@
         <v>148225.64</v>
       </c>
       <c r="J56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K56">
         <v>4</v>
@@ -5613,10 +6585,25 @@
         <v>-0.58</v>
       </c>
       <c r="X56" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y56">
+        <v>3.06</v>
+      </c>
+      <c r="Z56">
+        <v>112.6</v>
+      </c>
+      <c r="AA56">
+        <v>6.28</v>
       </c>
       <c r="AC56" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5624,22 +6611,25 @@
       <c r="AG56">
         <v>3.283400535583496</v>
       </c>
-      <c r="AH56" t="s">
-        <v>143</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688981</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>0.32</v>
@@ -5657,7 +6647,7 @@
         <v>1480720.9</v>
       </c>
       <c r="J57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K57">
         <v>7</v>
@@ -5698,8 +6688,23 @@
       <c r="W57">
         <v>0</v>
       </c>
+      <c r="Y57">
+        <v>6.25</v>
+      </c>
+      <c r="Z57">
+        <v>129.83</v>
+      </c>
+      <c r="AA57">
+        <v>5.95</v>
+      </c>
       <c r="AC57" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5707,8 +6712,11 @@
       <c r="AG57">
         <v>5.884610176086426</v>
       </c>
-      <c r="AH57" t="s">
-        <v>143</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
